--- a/app/files/cohort-import-template.xlsx
+++ b/app/files/cohort-import-template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28712"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="301" documentId="11_3A1B117BF375DF660232DDE76EA02BF2C6609CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4D1EBE-EE61-4671-B8DE-33876B79E8DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEC1538-FFB1-4056-BB0D-6C73AD442E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>CHILD_SCHOOL_URN</t>
   </si>
@@ -42,12 +42,21 @@
     <t>CHILD_LAST_NAME</t>
   </si>
   <si>
+    <t>CHILD_PREFERRED_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_PREFERRED_LAST_NAME</t>
+  </si>
+  <si>
     <t>CHILD_DATE_OF_BIRTH</t>
   </si>
   <si>
     <t>CHILD_YEAR_GROUP</t>
   </si>
   <si>
+    <t>CHILD_REGISTRATION</t>
+  </si>
+  <si>
     <t>CHILD_GENDER</t>
   </si>
   <si>
@@ -90,25 +99,95 @@
     <t>PARENT_2_EMAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">Required, 6 digits, numeric, use 888888 for school unknown and 999999 for homeschooled </t>
-  </si>
-  <si>
-    <t>Required: Free text </t>
-  </si>
-  <si>
-    <t>Required: DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Optional: Numeric. When specified, a child's cohort year group will be taken from this value rather than calculated from the date of birth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional: Male, Female </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">, 6 digits, numeric, use 888888 for school unknown and 999999 for homeschooled </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Free text </t>
+    </r>
+  </si>
+  <si>
+    <t>Optional: Free text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: DD/MM/YYYY</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional: Numeric. If present, and when the child’s date of birth would place them in a different year, this value can be used to override the cohort the child will be placed in.</t>
+  </si>
+  <si>
+    <t>Optional. Child's registration group, for example, 8T5</t>
+  </si>
+  <si>
+    <t>Optional: Male, Female, Not known or Not Specified</t>
   </si>
   <si>
     <t>Optional: Free text </t>
   </si>
   <si>
-    <t>Required: Valid postcode format</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Valid postcode format</t>
+    </r>
   </si>
   <si>
     <t>Optional: 10 digits, numeric </t>
@@ -121,16 +200,13 @@
   </si>
   <si>
     <t>Optional: Email address </t>
-  </si>
-  <si>
-    <t>Optional: Free text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +232,17 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -219,10 +306,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,37 +652,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0FF976-7385-4EFB-92FB-A6D5246D9732}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="12" width="29.5703125" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.5703125" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
-    <col min="19" max="19" width="26.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" customWidth="1"/>
-    <col min="21" max="21" width="28.42578125" customWidth="1"/>
+    <col min="3" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="15" width="29.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="20" max="20" width="31.5703125" customWidth="1"/>
+    <col min="21" max="21" width="31.42578125" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="36">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,10 +695,10 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -623,13 +716,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -647,67 +740,85 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="51" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
